--- a/Team-Data/2012-13/4-2-2012-13.xlsx
+++ b/Team-Data/2012-13/4-2-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -750,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -792,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="AT2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
@@ -810,7 +877,7 @@
         <v>7</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA2" t="n">
         <v>26</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -926,16 +993,16 @@
         <v>-0.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
@@ -959,13 +1026,13 @@
         <v>17</v>
       </c>
       <c r="AO3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP3" t="n">
         <v>20</v>
       </c>
-      <c r="AP3" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR3" t="n">
         <v>29</v>
@@ -977,7 +1044,7 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV3" t="n">
         <v>13</v>
@@ -995,7 +1062,7 @@
         <v>26</v>
       </c>
       <c r="BA3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB3" t="n">
         <v>18</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>1.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1153,7 +1220,7 @@
         <v>5</v>
       </c>
       <c r="AS4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT4" t="n">
         <v>10</v>
@@ -1165,7 +1232,7 @@
         <v>17</v>
       </c>
       <c r="AW4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX4" t="n">
         <v>18</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-9.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" t="n">
         <v>40</v>
       </c>
       <c r="F6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>0.548</v>
+        <v>0.556</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
@@ -1412,7 +1479,7 @@
         <v>35.7</v>
       </c>
       <c r="J6" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K6" t="n">
         <v>0.436</v>
@@ -1421,19 +1488,19 @@
         <v>5.1</v>
       </c>
       <c r="M6" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.342</v>
+        <v>0.345</v>
       </c>
       <c r="O6" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P6" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.776</v>
+        <v>0.777</v>
       </c>
       <c r="R6" t="n">
         <v>12.8</v>
@@ -1445,16 +1512,16 @@
         <v>43.4</v>
       </c>
       <c r="U6" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V6" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y6" t="n">
         <v>5.9</v>
@@ -1463,25 +1530,25 @@
         <v>19.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="AC6" t="n">
         <v>0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
         <v>15</v>
@@ -1490,7 +1557,7 @@
         <v>26</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK6" t="n">
         <v>27</v>
@@ -1505,13 +1572,13 @@
         <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR6" t="n">
         <v>6</v>
@@ -1526,22 +1593,22 @@
         <v>6</v>
       </c>
       <c r="AV6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ6" t="n">
         <v>11</v>
       </c>
       <c r="BA6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB6" t="n">
         <v>30</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-4.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1702,7 +1769,7 @@
         <v>30</v>
       </c>
       <c r="AT7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU7" t="n">
         <v>25</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -1758,19 +1825,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" t="n">
         <v>36</v>
       </c>
       <c r="F8" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" t="n">
-        <v>0.486</v>
+        <v>0.493</v>
       </c>
       <c r="H8" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I8" t="n">
         <v>38.6</v>
@@ -1779,7 +1846,7 @@
         <v>83.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L8" t="n">
         <v>7.5</v>
@@ -1791,22 +1858,22 @@
         <v>0.373</v>
       </c>
       <c r="O8" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="P8" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.791</v>
+        <v>0.794</v>
       </c>
       <c r="R8" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S8" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T8" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U8" t="n">
         <v>23</v>
@@ -1827,25 +1894,25 @@
         <v>20.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.1</v>
+        <v>101.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>-1.1</v>
+        <v>-0.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
         <v>3</v>
@@ -1866,22 +1933,22 @@
         <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP8" t="n">
         <v>24</v>
       </c>
       <c r="AQ8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR8" t="n">
         <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT8" t="n">
         <v>16</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>4.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>4</v>
@@ -2030,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="AH9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2072,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW9" t="n">
         <v>2</v>
@@ -2084,7 +2151,7 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA9" t="n">
         <v>4</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>0.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
@@ -2421,7 +2488,7 @@
         <v>17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR11" t="n">
         <v>23</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -2564,16 +2631,16 @@
         <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
         <v>24</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -2755,7 +2822,7 @@
         <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH13" t="n">
         <v>14</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -2940,7 +3007,7 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI14" t="n">
         <v>6</v>
@@ -2961,7 +3028,7 @@
         <v>21</v>
       </c>
       <c r="AO14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -3032,22 +3099,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" t="n">
         <v>36</v>
       </c>
       <c r="G15" t="n">
-        <v>0.52</v>
+        <v>0.514</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
         <v>81.3</v>
@@ -3065,7 +3132,7 @@
         <v>0.358</v>
       </c>
       <c r="O15" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P15" t="n">
         <v>27.7</v>
@@ -3074,13 +3141,13 @@
         <v>0.6879999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T15" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="U15" t="n">
         <v>22.1</v>
@@ -3104,28 +3171,28 @@
         <v>22.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>14</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
         <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ15" t="n">
         <v>18</v>
@@ -3155,7 +3222,7 @@
         <v>13</v>
       </c>
       <c r="AS15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT15" t="n">
         <v>3</v>
@@ -3167,7 +3234,7 @@
         <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AX15" t="n">
         <v>15</v>
@@ -3176,7 +3243,7 @@
         <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3310,10 +3377,10 @@
         <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3325,10 +3392,10 @@
         <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
         <v>6</v>
@@ -3367,7 +3434,7 @@
         <v>26</v>
       </c>
       <c r="BC16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -3396,25 +3463,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" t="n">
         <v>58</v>
       </c>
       <c r="F17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>0.784</v>
+        <v>0.795</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J17" t="n">
-        <v>77.7</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K17" t="n">
         <v>0.497</v>
@@ -3429,34 +3496,34 @@
         <v>0.394</v>
       </c>
       <c r="O17" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P17" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R17" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S17" t="n">
         <v>30</v>
       </c>
       <c r="T17" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="U17" t="n">
         <v>22.9</v>
       </c>
       <c r="V17" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W17" t="n">
         <v>8.9</v>
       </c>
       <c r="X17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y17" t="n">
         <v>3.3</v>
@@ -3465,16 +3532,16 @@
         <v>18.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.1</v>
+        <v>103.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3519,13 +3586,13 @@
         <v>28</v>
       </c>
       <c r="AS17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV17" t="n">
         <v>3</v>
@@ -3534,7 +3601,7 @@
         <v>3</v>
       </c>
       <c r="AX17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3543,7 +3610,7 @@
         <v>8</v>
       </c>
       <c r="BA17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3668,7 +3735,7 @@
         <v>17</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI18" t="n">
         <v>5</v>
@@ -3719,7 +3786,7 @@
         <v>2</v>
       </c>
       <c r="AY18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ18" t="n">
         <v>9</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -3838,16 +3905,16 @@
         <v>-2.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
@@ -3856,7 +3923,7 @@
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3901,7 +3968,7 @@
         <v>18</v>
       </c>
       <c r="AY19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ19" t="n">
         <v>6</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>25</v>
@@ -4044,7 +4111,7 @@
         <v>13</v>
       </c>
       <c r="AL20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM20" t="n">
         <v>21</v>
@@ -4065,7 +4132,7 @@
         <v>12</v>
       </c>
       <c r="AS20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT20" t="n">
         <v>18</v>
@@ -4074,7 +4141,7 @@
         <v>22</v>
       </c>
       <c r="AV20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW20" t="n">
         <v>29</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" t="n">
         <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>0.644</v>
+        <v>0.639</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
@@ -4142,10 +4209,10 @@
         <v>36.1</v>
       </c>
       <c r="J21" t="n">
-        <v>81</v>
+        <v>81.2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L21" t="n">
         <v>10.7</v>
@@ -4154,7 +4221,7 @@
         <v>28.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.374</v>
+        <v>0.372</v>
       </c>
       <c r="O21" t="n">
         <v>16.6</v>
@@ -4163,16 +4230,16 @@
         <v>21.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R21" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T21" t="n">
-        <v>40.5</v>
+        <v>40.7</v>
       </c>
       <c r="U21" t="n">
         <v>19.2</v>
@@ -4187,22 +4254,22 @@
         <v>3.7</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="n">
         <v>19.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
@@ -4211,7 +4278,7 @@
         <v>6</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH21" t="n">
         <v>30</v>
@@ -4223,7 +4290,7 @@
         <v>20</v>
       </c>
       <c r="AK21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4232,10 +4299,10 @@
         <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP21" t="n">
         <v>16</v>
@@ -4244,13 +4311,13 @@
         <v>14</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AU21" t="n">
         <v>29</v>
@@ -4277,7 +4344,7 @@
         <v>11</v>
       </c>
       <c r="BC21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4429,10 +4496,10 @@
         <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
         <v>21</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -4620,7 +4687,7 @@
         <v>10</v>
       </c>
       <c r="AV23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4805,7 +4872,7 @@
         <v>2</v>
       </c>
       <c r="AW24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX24" t="n">
         <v>17</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>27</v>
@@ -4990,7 +5057,7 @@
         <v>15</v>
       </c>
       <c r="AX25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5124,13 +5191,13 @@
         <v>19</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
         <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK26" t="n">
         <v>14</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>-4.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF27" t="n">
         <v>23</v>
@@ -5342,7 +5409,7 @@
         <v>28</v>
       </c>
       <c r="AT27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU27" t="n">
         <v>26</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>7.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5488,7 +5555,7 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>-2.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF29" t="n">
         <v>23</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -5855,7 +5922,7 @@
         <v>7</v>
       </c>
       <c r="AI30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ30" t="n">
         <v>11</v>
@@ -5870,7 +5937,7 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO30" t="n">
         <v>7</v>
@@ -5903,13 +5970,13 @@
         <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ30" t="n">
         <v>29</v>
       </c>
       <c r="BA30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB30" t="n">
         <v>13</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" t="n">
         <v>46</v>
       </c>
       <c r="G31" t="n">
-        <v>0.378</v>
+        <v>0.37</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J31" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K31" t="n">
         <v>0.434</v>
@@ -5971,28 +6038,28 @@
         <v>6.7</v>
       </c>
       <c r="M31" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O31" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P31" t="n">
         <v>21.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.735</v>
+        <v>0.736</v>
       </c>
       <c r="R31" t="n">
         <v>10.9</v>
       </c>
       <c r="S31" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T31" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U31" t="n">
         <v>21.9</v>
@@ -6010,19 +6077,19 @@
         <v>4.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.09999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>-2.2</v>
+        <v>-2.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
         <v>21</v>
@@ -6034,13 +6101,13 @@
         <v>21</v>
       </c>
       <c r="AH31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI31" t="n">
         <v>28</v>
       </c>
       <c r="AJ31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK31" t="n">
         <v>29</v>
@@ -6052,7 +6119,7 @@
         <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO31" t="n">
         <v>25</v>
@@ -6064,19 +6131,19 @@
         <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU31" t="n">
         <v>18</v>
       </c>
       <c r="AV31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW31" t="n">
         <v>22</v>
@@ -6085,10 +6152,10 @@
         <v>24</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA31" t="n">
         <v>24</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-2-2012-13</t>
+          <t>2013-04-02</t>
         </is>
       </c>
     </row>
